--- a/Linux/Linux设备文件名.xlsx
+++ b/Linux/Linux设备文件名.xlsx
@@ -152,7 +152,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -162,38 +162,16 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color rgb="FFFF0000"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color rgb="FFFF0000"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color rgb="FFFF0000"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color rgb="FFFF0000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -201,16 +179,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -515,7 +492,7 @@
   <dimension ref="C1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -525,7 +502,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="3:4" ht="22.5" x14ac:dyDescent="0.4">
+    <row r="2" spans="3:4" ht="23.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
@@ -533,7 +510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="3:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
@@ -541,7 +518,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="3:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
@@ -549,7 +526,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="3:4" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="3:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
@@ -557,7 +534,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="3:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
@@ -565,7 +542,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="3:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
@@ -573,7 +550,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="3:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
@@ -581,7 +558,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="3:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C9" s="2" t="s">
         <v>14</v>
       </c>
@@ -589,7 +566,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="3:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C10" s="2" t="s">
         <v>16</v>
       </c>
@@ -598,10 +575,10 @@
       </c>
     </row>
     <row r="11" spans="3:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="2" t="s">
         <v>19</v>
       </c>
     </row>
